--- a/Geschke Plumbing/26385-1/struct.xlsx
+++ b/Geschke Plumbing/26385-1/struct.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Geschke Plumbing\26385-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7503CA-3E1C-4B87-BCA0-42D8EDC60F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E661B79-216C-4453-BAF6-911FBDD7B8B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="780" windowWidth="28965" windowHeight="18705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5415" yWindow="1380" windowWidth="28965" windowHeight="18705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="struct" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">struct!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">struct!$A$1:$M$118</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="61">
   <si>
     <t>resource</t>
   </si>
@@ -65,13 +65,154 @@
   </si>
   <si>
     <t>Domestic Hot Water Service</t>
+  </si>
+  <si>
+    <t>Central Utilities</t>
+  </si>
+  <si>
+    <t>Cultural Centre</t>
+  </si>
+  <si>
+    <t>Education Programs</t>
+  </si>
+  <si>
+    <t>Entry 01</t>
+  </si>
+  <si>
+    <t>Entry 02</t>
+  </si>
+  <si>
+    <t>Entry 03</t>
+  </si>
+  <si>
+    <t>Entry 04</t>
+  </si>
+  <si>
+    <t>Entry 05</t>
+  </si>
+  <si>
+    <t>Entry 06</t>
+  </si>
+  <si>
+    <t>Entry 07</t>
+  </si>
+  <si>
+    <t>Entry 08</t>
+  </si>
+  <si>
+    <t>External Stores</t>
+  </si>
+  <si>
+    <t>External Works</t>
+  </si>
+  <si>
+    <t>Gatehouse</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Industries Mainstream</t>
+  </si>
+  <si>
+    <t>Industries Protection</t>
+  </si>
+  <si>
+    <t>Kitchen Laundry</t>
+  </si>
+  <si>
+    <t>Management Unit</t>
+  </si>
+  <si>
+    <t>Operations Centre</t>
+  </si>
+  <si>
+    <t>Reception Discharge</t>
+  </si>
+  <si>
+    <t>Recreation</t>
+  </si>
+  <si>
+    <t>Visits</t>
+  </si>
+  <si>
+    <t>ZURN</t>
+  </si>
+  <si>
+    <t>Rheem</t>
+  </si>
+  <si>
+    <t>Enware</t>
+  </si>
+  <si>
+    <t>Stiebel</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>QA 31 - Hot Water Service Maintenance Log</t>
+  </si>
+  <si>
+    <t>Main Accommodation 01 (Alkara 1)</t>
+  </si>
+  <si>
+    <t>Main Accommodation 02 (Alkara 2)</t>
+  </si>
+  <si>
+    <t>Main Accommodation 03 (Bennetti 1)</t>
+  </si>
+  <si>
+    <t>Main Accommodation 04 (Bennetti 2)</t>
+  </si>
+  <si>
+    <t>Main Accommodation 05 (Ceti 1)</t>
+  </si>
+  <si>
+    <t>Main Accommodation 06 (Ceti 2)</t>
+  </si>
+  <si>
+    <t>Main Accommodation 07 (Duncan 2)</t>
+  </si>
+  <si>
+    <t>Main Accommodation 08 (Duncan 1)</t>
+  </si>
+  <si>
+    <t>Main Accommodation 09 (Eastlakes 1)</t>
+  </si>
+  <si>
+    <t>Main Accommodation 10 (Eastlakes 2)</t>
+  </si>
+  <si>
+    <t>Main Accommodation 11 (Franco 1)</t>
+  </si>
+  <si>
+    <t>Main Accommodation 12 (Franco 2)</t>
+  </si>
+  <si>
+    <t>Main Accommodation 13 (Galvin 1)</t>
+  </si>
+  <si>
+    <t>Main Accommodation 14 (Galvin 2)</t>
+  </si>
+  <si>
+    <t>Main Accommodation 15 (Hailar 1)</t>
+  </si>
+  <si>
+    <t>Main Accommodation 16 (Hailar 2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +347,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -504,7 +652,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -547,11 +695,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -589,6 +739,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="42" xr:uid="{471C6B8C-26B9-4D90-89A8-24F1EB5AF15D}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -905,15 +1056,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="57" bestFit="1" customWidth="1"/>
@@ -966,12 +1117,1639 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>47</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>47</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>47</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>48</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>48</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>48</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>49</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>49</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>49</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>50</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>50</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>50</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>51</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>51</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>51</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>52</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>52</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>52</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>53</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>44</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>53</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>53</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>54</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>54</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>54</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>44</v>
+      </c>
+      <c r="B86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>55</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>44</v>
+      </c>
+      <c r="B87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>55</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>44</v>
+      </c>
+      <c r="B88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>55</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>44</v>
+      </c>
+      <c r="B89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>56</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>44</v>
+      </c>
+      <c r="B90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>56</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>44</v>
+      </c>
+      <c r="B91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>56</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>44</v>
+      </c>
+      <c r="B92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>57</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>44</v>
+      </c>
+      <c r="B93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>57</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>57</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>44</v>
+      </c>
+      <c r="B95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>58</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>58</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>44</v>
+      </c>
+      <c r="B97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>58</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>44</v>
+      </c>
+      <c r="B98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>59</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>44</v>
+      </c>
+      <c r="B99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>59</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>44</v>
+      </c>
+      <c r="B100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>59</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>44</v>
+      </c>
+      <c r="B101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" t="s">
+        <v>60</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>44</v>
+      </c>
+      <c r="B102" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s">
+        <v>60</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>44</v>
+      </c>
+      <c r="B103" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" t="s">
+        <v>60</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>44</v>
+      </c>
+      <c r="B104" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>44</v>
+      </c>
+      <c r="B105" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>44</v>
+      </c>
+      <c r="B106" t="s">
+        <v>43</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>44</v>
+      </c>
+      <c r="B107" t="s">
+        <v>43</v>
+      </c>
+      <c r="F107" t="s">
+        <v>33</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>44</v>
+      </c>
+      <c r="B108" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>44</v>
+      </c>
+      <c r="B109" t="s">
+        <v>43</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>44</v>
+      </c>
+      <c r="B110" t="s">
+        <v>43</v>
+      </c>
+      <c r="F110" t="s">
+        <v>34</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>44</v>
+      </c>
+      <c r="B111" t="s">
+        <v>43</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>44</v>
+      </c>
+      <c r="B112" t="s">
+        <v>43</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>44</v>
+      </c>
+      <c r="B113" t="s">
+        <v>43</v>
+      </c>
+      <c r="F113" t="s">
+        <v>35</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>44</v>
+      </c>
+      <c r="B114" t="s">
+        <v>43</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>44</v>
+      </c>
+      <c r="B115" t="s">
+        <v>43</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>44</v>
+      </c>
+      <c r="B116" t="s">
+        <v>43</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>44</v>
+      </c>
+      <c r="B117" t="s">
+        <v>43</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>44</v>
+      </c>
+      <c r="B118" t="s">
+        <v>43</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M118" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>